--- a/data/pca/factorExposure/factorExposure_2012-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01540212041516944</v>
+        <v>-0.01522244704012911</v>
       </c>
       <c r="C2">
-        <v>-0.03079083909478146</v>
+        <v>-0.0263111478973604</v>
       </c>
       <c r="D2">
-        <v>-0.004811488379016167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007008478562750073</v>
+      </c>
+      <c r="E2">
+        <v>-0.01558105338703462</v>
+      </c>
+      <c r="F2">
+        <v>-0.01154067995934409</v>
+      </c>
+      <c r="G2">
+        <v>-0.01645527116262588</v>
+      </c>
+      <c r="H2">
+        <v>0.05177545567754633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07349255348478734</v>
+        <v>-0.08806346254749191</v>
       </c>
       <c r="C4">
-        <v>-0.05427206007050909</v>
+        <v>-0.04261895699102463</v>
       </c>
       <c r="D4">
-        <v>-0.08031258867360459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06270775081321066</v>
+      </c>
+      <c r="E4">
+        <v>-0.01114854711678934</v>
+      </c>
+      <c r="F4">
+        <v>-0.03902460609714359</v>
+      </c>
+      <c r="G4">
+        <v>-0.004257003386102111</v>
+      </c>
+      <c r="H4">
+        <v>-0.0409842872530796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1097337723820801</v>
+        <v>-0.1193876925003425</v>
       </c>
       <c r="C6">
-        <v>-0.05373601572879583</v>
+        <v>-0.03515461238922018</v>
       </c>
       <c r="D6">
-        <v>0.001104683411502543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01354907329132841</v>
+      </c>
+      <c r="E6">
+        <v>0.01709591857800102</v>
+      </c>
+      <c r="F6">
+        <v>-0.05421927128963927</v>
+      </c>
+      <c r="G6">
+        <v>-0.03463760600287263</v>
+      </c>
+      <c r="H6">
+        <v>0.1186317940418365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05156230264590376</v>
+        <v>-0.06436066161564234</v>
       </c>
       <c r="C7">
-        <v>-0.0279268556853786</v>
+        <v>-0.01993834073222871</v>
       </c>
       <c r="D7">
-        <v>-0.04501897913486738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04475284279737644</v>
+      </c>
+      <c r="E7">
+        <v>-0.03540795134972699</v>
+      </c>
+      <c r="F7">
+        <v>-0.03513632501982187</v>
+      </c>
+      <c r="G7">
+        <v>0.03807582154286448</v>
+      </c>
+      <c r="H7">
+        <v>-0.007045609566893829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03955649684245254</v>
+        <v>-0.04129186843123177</v>
       </c>
       <c r="C8">
-        <v>-0.01552837228763667</v>
+        <v>-0.01129560030031105</v>
       </c>
       <c r="D8">
-        <v>-0.06011652725504021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02370144344371124</v>
+      </c>
+      <c r="E8">
+        <v>-0.02295792983818646</v>
+      </c>
+      <c r="F8">
+        <v>-0.05542229326014374</v>
+      </c>
+      <c r="G8">
+        <v>-0.05812185701602715</v>
+      </c>
+      <c r="H8">
+        <v>0.008113736704697356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06868756673570117</v>
+        <v>-0.07982804822636864</v>
       </c>
       <c r="C9">
-        <v>-0.04298834040987348</v>
+        <v>-0.03129222285293692</v>
       </c>
       <c r="D9">
-        <v>-0.07024943561123717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06068480470853704</v>
+      </c>
+      <c r="E9">
+        <v>-0.03075099918267202</v>
+      </c>
+      <c r="F9">
+        <v>-0.03575733080051071</v>
+      </c>
+      <c r="G9">
+        <v>-0.009796617029567479</v>
+      </c>
+      <c r="H9">
+        <v>-0.04918890336317231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0283223495366568</v>
+        <v>-0.03302812182357956</v>
       </c>
       <c r="C10">
-        <v>-0.02336940407346412</v>
+        <v>-0.03684254056568863</v>
       </c>
       <c r="D10">
-        <v>0.1686816592612967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1726156585502736</v>
+      </c>
+      <c r="E10">
+        <v>-0.04043373706352265</v>
+      </c>
+      <c r="F10">
+        <v>-0.04894774332343518</v>
+      </c>
+      <c r="G10">
+        <v>0.02417458874957621</v>
+      </c>
+      <c r="H10">
+        <v>0.03827213588793064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07231096589484408</v>
+        <v>-0.07685021868746676</v>
       </c>
       <c r="C11">
-        <v>-0.04514927635448664</v>
+        <v>-0.02805632334903446</v>
       </c>
       <c r="D11">
-        <v>-0.05889557216117405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06245412703651307</v>
+      </c>
+      <c r="E11">
+        <v>0.004341553976054887</v>
+      </c>
+      <c r="F11">
+        <v>-0.02887766696785305</v>
+      </c>
+      <c r="G11">
+        <v>-0.001009402566460901</v>
+      </c>
+      <c r="H11">
+        <v>-0.08772557555804585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05949104860295044</v>
+        <v>-0.06851942335808374</v>
       </c>
       <c r="C12">
-        <v>-0.05195641855695558</v>
+        <v>-0.03811822049687223</v>
       </c>
       <c r="D12">
-        <v>-0.04767677391577398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04759861587070565</v>
+      </c>
+      <c r="E12">
+        <v>-0.01360445924875276</v>
+      </c>
+      <c r="F12">
+        <v>-0.02048346298945076</v>
+      </c>
+      <c r="G12">
+        <v>-0.003480396536656679</v>
+      </c>
+      <c r="H12">
+        <v>-0.04326148601692515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06123681164535761</v>
+        <v>-0.06471764927417181</v>
       </c>
       <c r="C13">
-        <v>-0.03861194526829764</v>
+        <v>-0.02501513716904089</v>
       </c>
       <c r="D13">
-        <v>-0.06041172845417522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04308996219135883</v>
+      </c>
+      <c r="E13">
+        <v>-0.01570808629325595</v>
+      </c>
+      <c r="F13">
+        <v>-0.007910676280480009</v>
+      </c>
+      <c r="G13">
+        <v>0.006194777200830621</v>
+      </c>
+      <c r="H13">
+        <v>-0.05395377552874764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03355914482248647</v>
+        <v>-0.04081656687401958</v>
       </c>
       <c r="C14">
-        <v>-0.03139314603917297</v>
+        <v>-0.02818820455970973</v>
       </c>
       <c r="D14">
-        <v>-0.002345631381346267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007071548683719324</v>
+      </c>
+      <c r="E14">
+        <v>-0.03232670144814066</v>
+      </c>
+      <c r="F14">
+        <v>-0.01636187365121205</v>
+      </c>
+      <c r="G14">
+        <v>-0.007282940883994555</v>
+      </c>
+      <c r="H14">
+        <v>-0.0595909443102779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04054857146033268</v>
+        <v>-0.04043579534435848</v>
       </c>
       <c r="C15">
-        <v>-0.01010669704139438</v>
+        <v>-0.003989862883367015</v>
       </c>
       <c r="D15">
-        <v>-0.0170560307060939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004111815767992483</v>
+      </c>
+      <c r="E15">
+        <v>-0.03399684927151445</v>
+      </c>
+      <c r="F15">
+        <v>0.0005197477096897582</v>
+      </c>
+      <c r="G15">
+        <v>-0.02448949738024561</v>
+      </c>
+      <c r="H15">
+        <v>-0.03701319932214457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06139262651735225</v>
+        <v>-0.07132920899906832</v>
       </c>
       <c r="C16">
-        <v>-0.04195696327030824</v>
+        <v>-0.02957758291030593</v>
       </c>
       <c r="D16">
-        <v>-0.04787071491186222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06058251230258613</v>
+      </c>
+      <c r="E16">
+        <v>-0.00442188824954023</v>
+      </c>
+      <c r="F16">
+        <v>-0.02670964448923541</v>
+      </c>
+      <c r="G16">
+        <v>0.003212443597111997</v>
+      </c>
+      <c r="H16">
+        <v>-0.05408184865970554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06300096541550519</v>
+        <v>-0.0637589113269761</v>
       </c>
       <c r="C20">
-        <v>-0.02499009993310947</v>
+        <v>-0.01057246382351381</v>
       </c>
       <c r="D20">
-        <v>-0.0539556902937765</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03874166930614422</v>
+      </c>
+      <c r="E20">
+        <v>-0.01971367481510517</v>
+      </c>
+      <c r="F20">
+        <v>-0.02813381985663429</v>
+      </c>
+      <c r="G20">
+        <v>-0.01473026856739596</v>
+      </c>
+      <c r="H20">
+        <v>-0.04673849962190887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02573170988866142</v>
+        <v>-0.02639126066126219</v>
       </c>
       <c r="C21">
-        <v>0.002412370535260184</v>
+        <v>0.008587673844554626</v>
       </c>
       <c r="D21">
-        <v>-0.02802027678017007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02511799030131617</v>
+      </c>
+      <c r="E21">
+        <v>-0.04495363122602743</v>
+      </c>
+      <c r="F21">
+        <v>0.01438217150320671</v>
+      </c>
+      <c r="G21">
+        <v>-0.008851480791637271</v>
+      </c>
+      <c r="H21">
+        <v>0.04779450279888286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07824352171017192</v>
+        <v>-0.07335900882899497</v>
       </c>
       <c r="C22">
-        <v>-0.06021762325980114</v>
+        <v>-0.0394489791242304</v>
       </c>
       <c r="D22">
-        <v>-0.1201641271229185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07978972377515692</v>
+      </c>
+      <c r="E22">
+        <v>-0.5985595369465909</v>
+      </c>
+      <c r="F22">
+        <v>0.1726152332675076</v>
+      </c>
+      <c r="G22">
+        <v>0.07144190163053858</v>
+      </c>
+      <c r="H22">
+        <v>0.1561356688917098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07920144071509842</v>
+        <v>-0.07410417630123378</v>
       </c>
       <c r="C23">
-        <v>-0.05899798481629417</v>
+        <v>-0.03797092073628448</v>
       </c>
       <c r="D23">
-        <v>-0.1217281896926179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08079566379159431</v>
+      </c>
+      <c r="E23">
+        <v>-0.597850514214133</v>
+      </c>
+      <c r="F23">
+        <v>0.1716331050833504</v>
+      </c>
+      <c r="G23">
+        <v>0.07025362989127353</v>
+      </c>
+      <c r="H23">
+        <v>0.1518105850829708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07332476347051745</v>
+        <v>-0.08068931640490724</v>
       </c>
       <c r="C24">
-        <v>-0.05192134023951713</v>
+        <v>-0.0358498258191418</v>
       </c>
       <c r="D24">
-        <v>-0.05998236411730397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05957463374603301</v>
+      </c>
+      <c r="E24">
+        <v>-0.01806168416782622</v>
+      </c>
+      <c r="F24">
+        <v>-0.03609514478932224</v>
+      </c>
+      <c r="G24">
+        <v>-0.01335747478616054</v>
+      </c>
+      <c r="H24">
+        <v>-0.05093217741696865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07248726635040915</v>
+        <v>-0.0784631737250483</v>
       </c>
       <c r="C25">
-        <v>-0.05575596807694234</v>
+        <v>-0.03902626213428826</v>
       </c>
       <c r="D25">
-        <v>-0.06727057289908275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05201079718050634</v>
+      </c>
+      <c r="E25">
+        <v>-0.0199067612292574</v>
+      </c>
+      <c r="F25">
+        <v>-0.02601938310584894</v>
+      </c>
+      <c r="G25">
+        <v>-0.02032152840822486</v>
+      </c>
+      <c r="H25">
+        <v>-0.0551177861792406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04612613323858362</v>
+        <v>-0.04811741957156346</v>
       </c>
       <c r="C26">
-        <v>-0.01028819508076598</v>
+        <v>-0.003511520142175554</v>
       </c>
       <c r="D26">
-        <v>-0.01316307842944347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01721940726249886</v>
+      </c>
+      <c r="E26">
+        <v>-0.04750058970059737</v>
+      </c>
+      <c r="F26">
+        <v>-0.02852677697630266</v>
+      </c>
+      <c r="G26">
+        <v>0.008473024185564008</v>
+      </c>
+      <c r="H26">
+        <v>-0.05949514683289895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05279230531211884</v>
+        <v>-0.06090688109944536</v>
       </c>
       <c r="C28">
-        <v>-0.06213063201280487</v>
+        <v>-0.07708599427762433</v>
       </c>
       <c r="D28">
-        <v>0.3116485125248157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3083900340930205</v>
+      </c>
+      <c r="E28">
+        <v>-0.0328496013173822</v>
+      </c>
+      <c r="F28">
+        <v>-0.05383018444061474</v>
+      </c>
+      <c r="G28">
+        <v>-0.0279569945802404</v>
+      </c>
+      <c r="H28">
+        <v>0.04351294117875742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04213316341259198</v>
+        <v>-0.04851805544438539</v>
       </c>
       <c r="C29">
-        <v>-0.02893802061088512</v>
+        <v>-0.02481797127060975</v>
       </c>
       <c r="D29">
-        <v>-0.008746571492000433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007134040045805611</v>
+      </c>
+      <c r="E29">
+        <v>-0.0613649646292735</v>
+      </c>
+      <c r="F29">
+        <v>-0.01084482457638535</v>
+      </c>
+      <c r="G29">
+        <v>0.00818861783703527</v>
+      </c>
+      <c r="H29">
+        <v>-0.07633459017138478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1262458513732032</v>
+        <v>-0.1305735034980441</v>
       </c>
       <c r="C30">
-        <v>-0.08891759705336448</v>
+        <v>-0.06366044136213038</v>
       </c>
       <c r="D30">
-        <v>-0.09957149162545548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06684958205075596</v>
+      </c>
+      <c r="E30">
+        <v>-0.08017524807377216</v>
+      </c>
+      <c r="F30">
+        <v>0.008761578450196945</v>
+      </c>
+      <c r="G30">
+        <v>-0.08217306950678306</v>
+      </c>
+      <c r="H30">
+        <v>0.04412206809120076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0440726761366159</v>
+        <v>-0.04913038915865141</v>
       </c>
       <c r="C31">
-        <v>-0.02246244188629071</v>
+        <v>-0.01493038065087802</v>
       </c>
       <c r="D31">
-        <v>-0.02140480314007599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02642704168423844</v>
+      </c>
+      <c r="E31">
+        <v>-0.0243677223659892</v>
+      </c>
+      <c r="F31">
+        <v>-0.01306358600782091</v>
+      </c>
+      <c r="G31">
+        <v>0.02385719540626138</v>
+      </c>
+      <c r="H31">
+        <v>-0.06358850454682943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0384509650468886</v>
+        <v>-0.03939601167155759</v>
       </c>
       <c r="C32">
-        <v>-0.02884895894020714</v>
+        <v>-0.02330642272763957</v>
       </c>
       <c r="D32">
-        <v>-0.02094358142208246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009736138818669676</v>
+      </c>
+      <c r="E32">
+        <v>-0.048566812047523</v>
+      </c>
+      <c r="F32">
+        <v>0.008566714382459879</v>
+      </c>
+      <c r="G32">
+        <v>-0.02683579670560883</v>
+      </c>
+      <c r="H32">
+        <v>-0.07138982117334174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08426936295601843</v>
+        <v>-0.09590196522449632</v>
       </c>
       <c r="C33">
-        <v>-0.04317497046542214</v>
+        <v>-0.02880908070033749</v>
       </c>
       <c r="D33">
-        <v>-0.05937376550835169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04547032093821458</v>
+      </c>
+      <c r="E33">
+        <v>-0.01361788597315883</v>
+      </c>
+      <c r="F33">
+        <v>-0.006134935557342108</v>
+      </c>
+      <c r="G33">
+        <v>0.006003755117233999</v>
+      </c>
+      <c r="H33">
+        <v>-0.055050300003623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05788746475014768</v>
+        <v>-0.06364900828911745</v>
       </c>
       <c r="C34">
-        <v>-0.0274131216423677</v>
+        <v>-0.01434493967703291</v>
       </c>
       <c r="D34">
-        <v>-0.05730606303958328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05164595982233346</v>
+      </c>
+      <c r="E34">
+        <v>-0.007393847072792171</v>
+      </c>
+      <c r="F34">
+        <v>-0.01687821555947349</v>
+      </c>
+      <c r="G34">
+        <v>0.001099673090622062</v>
+      </c>
+      <c r="H34">
+        <v>-0.06091032517495382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0377925781376294</v>
+        <v>-0.04003218908022355</v>
       </c>
       <c r="C35">
-        <v>-0.008029397386431625</v>
+        <v>-0.003951296349696715</v>
       </c>
       <c r="D35">
-        <v>-0.01556726630419598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009074639721247493</v>
+      </c>
+      <c r="E35">
+        <v>-0.01905382683747816</v>
+      </c>
+      <c r="F35">
+        <v>0.01353317225910573</v>
+      </c>
+      <c r="G35">
+        <v>0.008501466585737952</v>
+      </c>
+      <c r="H35">
+        <v>-0.01695191188256189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0228319246755651</v>
+        <v>-0.02899550354194952</v>
       </c>
       <c r="C36">
-        <v>-0.0161920494841458</v>
+        <v>-0.01370103118564766</v>
       </c>
       <c r="D36">
-        <v>-0.02289146057470846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01549948877333743</v>
+      </c>
+      <c r="E36">
+        <v>-0.03418438616101298</v>
+      </c>
+      <c r="F36">
+        <v>-0.0227747866767873</v>
+      </c>
+      <c r="G36">
+        <v>0.007478465543805248</v>
+      </c>
+      <c r="H36">
+        <v>-0.04910093355441179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04071481198278912</v>
+        <v>-0.04433254290969677</v>
       </c>
       <c r="C38">
-        <v>-0.004287486067431082</v>
+        <v>0.0005634987075780869</v>
       </c>
       <c r="D38">
-        <v>-0.01881248967384545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01823416455556661</v>
+      </c>
+      <c r="E38">
+        <v>-0.05229704883715491</v>
+      </c>
+      <c r="F38">
+        <v>0.006718824770822015</v>
+      </c>
+      <c r="G38">
+        <v>-0.008012126434769375</v>
+      </c>
+      <c r="H38">
+        <v>-0.03688680372359499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09227786599050629</v>
+        <v>-0.1021918109665489</v>
       </c>
       <c r="C39">
-        <v>-0.07281907151903007</v>
+        <v>-0.05298225692026243</v>
       </c>
       <c r="D39">
-        <v>-0.0564962286882261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06017911469229721</v>
+      </c>
+      <c r="E39">
+        <v>-0.005254084821535425</v>
+      </c>
+      <c r="F39">
+        <v>5.238233066933011e-05</v>
+      </c>
+      <c r="G39">
+        <v>-0.03532894212482671</v>
+      </c>
+      <c r="H39">
+        <v>-0.04527128481024126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07683330093827731</v>
+        <v>-0.07110142317962964</v>
       </c>
       <c r="C40">
-        <v>-0.03837123398770043</v>
+        <v>-0.01961464597125402</v>
       </c>
       <c r="D40">
-        <v>0.0009130965889356085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.009824186913657312</v>
+      </c>
+      <c r="E40">
+        <v>-0.01702757130740275</v>
+      </c>
+      <c r="F40">
+        <v>0.05970957462220658</v>
+      </c>
+      <c r="G40">
+        <v>-0.05648037754706037</v>
+      </c>
+      <c r="H40">
+        <v>0.09425197380133035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04160475276827201</v>
+        <v>-0.04484484166567113</v>
       </c>
       <c r="C41">
-        <v>-0.004916401975446934</v>
+        <v>0.001119068600553287</v>
       </c>
       <c r="D41">
-        <v>-0.03457235419691747</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03175719653140192</v>
+      </c>
+      <c r="E41">
+        <v>1.762421731049203e-05</v>
+      </c>
+      <c r="F41">
+        <v>0.01426144098252447</v>
+      </c>
+      <c r="G41">
+        <v>-0.009949663935199835</v>
+      </c>
+      <c r="H41">
+        <v>-0.03477069778496112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05081072111158907</v>
+        <v>-0.05956277439423651</v>
       </c>
       <c r="C43">
-        <v>-0.02459234718887681</v>
+        <v>-0.01783080346122489</v>
       </c>
       <c r="D43">
-        <v>-0.01478611602792352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02243316710559854</v>
+      </c>
+      <c r="E43">
+        <v>-0.02215001253982183</v>
+      </c>
+      <c r="F43">
+        <v>-0.01387837663570682</v>
+      </c>
+      <c r="G43">
+        <v>0.01614785170289215</v>
+      </c>
+      <c r="H43">
+        <v>-0.05652264669539434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.095291424197708</v>
+        <v>-0.0969113192267636</v>
       </c>
       <c r="C44">
-        <v>-0.09052147339127256</v>
+        <v>-0.06728283082900689</v>
       </c>
       <c r="D44">
-        <v>-0.0783142083378484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05514077907590668</v>
+      </c>
+      <c r="E44">
+        <v>-0.08518296076205502</v>
+      </c>
+      <c r="F44">
+        <v>-0.05191364591134965</v>
+      </c>
+      <c r="G44">
+        <v>-0.0256203740022602</v>
+      </c>
+      <c r="H44">
+        <v>-0.011419394611954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02574274399647195</v>
+        <v>-0.03431982153988023</v>
       </c>
       <c r="C46">
-        <v>-0.0143952041402786</v>
+        <v>-0.01214741890033987</v>
       </c>
       <c r="D46">
-        <v>-0.02541553423285355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03298008771495315</v>
+      </c>
+      <c r="E46">
+        <v>-0.03552025273309263</v>
+      </c>
+      <c r="F46">
+        <v>-0.01605652568344883</v>
+      </c>
+      <c r="G46">
+        <v>0.006762627833425568</v>
+      </c>
+      <c r="H46">
+        <v>-0.03646312222409798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03046732064592808</v>
+        <v>-0.03791491873791786</v>
       </c>
       <c r="C47">
-        <v>-0.02386551441113611</v>
+        <v>-0.02007664144902313</v>
       </c>
       <c r="D47">
-        <v>-0.01055694656362074</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008933279466308305</v>
+      </c>
+      <c r="E47">
+        <v>-0.0464525515256525</v>
+      </c>
+      <c r="F47">
+        <v>-0.008516504245660124</v>
+      </c>
+      <c r="G47">
+        <v>0.0430424593204151</v>
+      </c>
+      <c r="H47">
+        <v>-0.02645693428780268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03412379501886979</v>
+        <v>-0.03875335999464616</v>
       </c>
       <c r="C48">
-        <v>-0.01742022020490165</v>
+        <v>-0.01077299462945071</v>
       </c>
       <c r="D48">
-        <v>-0.03092888074083664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01923249380832428</v>
+      </c>
+      <c r="E48">
+        <v>-0.04097465458065701</v>
+      </c>
+      <c r="F48">
+        <v>-0.007621233982840348</v>
+      </c>
+      <c r="G48">
+        <v>-0.01306377234537738</v>
+      </c>
+      <c r="H48">
+        <v>-0.04261095909520311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.162033424025653</v>
+        <v>-0.189638670225441</v>
       </c>
       <c r="C49">
-        <v>-0.04945841889737777</v>
+        <v>-0.0308990365837963</v>
       </c>
       <c r="D49">
-        <v>0.01017338833020095</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02434640474078638</v>
+      </c>
+      <c r="E49">
+        <v>0.1530557496692522</v>
+      </c>
+      <c r="F49">
+        <v>-0.06191826302805918</v>
+      </c>
+      <c r="G49">
+        <v>0.0572323759630111</v>
+      </c>
+      <c r="H49">
+        <v>0.2314727560748534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04059401868470044</v>
+        <v>-0.0462930474982268</v>
       </c>
       <c r="C50">
-        <v>-0.0205867978106713</v>
+        <v>-0.01422265797339294</v>
       </c>
       <c r="D50">
-        <v>-0.03926527136155053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03267327283572823</v>
+      </c>
+      <c r="E50">
+        <v>-0.04341431184565345</v>
+      </c>
+      <c r="F50">
+        <v>-0.01446279618218488</v>
+      </c>
+      <c r="G50">
+        <v>0.0217899963117402</v>
+      </c>
+      <c r="H50">
+        <v>-0.06590616439174693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02826619715155497</v>
+        <v>-0.03061079626167448</v>
       </c>
       <c r="C51">
-        <v>-0.01072969744845808</v>
+        <v>-0.005032534863787312</v>
       </c>
       <c r="D51">
-        <v>-0.00897105384927209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01061909732853761</v>
+      </c>
+      <c r="E51">
+        <v>-0.01388554854848116</v>
+      </c>
+      <c r="F51">
+        <v>-0.01637877657625755</v>
+      </c>
+      <c r="G51">
+        <v>0.001103650598811904</v>
+      </c>
+      <c r="H51">
+        <v>-0.0003792812513771058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1530355378361328</v>
+        <v>-0.1630059328384095</v>
       </c>
       <c r="C53">
-        <v>-0.07274761427633633</v>
+        <v>-0.05040723501156094</v>
       </c>
       <c r="D53">
-        <v>-0.009059693250021825</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01663660741901412</v>
+      </c>
+      <c r="E53">
+        <v>0.0293191225830633</v>
+      </c>
+      <c r="F53">
+        <v>-0.01801706628768848</v>
+      </c>
+      <c r="G53">
+        <v>0.02366517850871459</v>
+      </c>
+      <c r="H53">
+        <v>-0.1763573266832496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05752564524338077</v>
+        <v>-0.05855388821641077</v>
       </c>
       <c r="C54">
-        <v>-0.02586406013734244</v>
+        <v>-0.01501040394575088</v>
       </c>
       <c r="D54">
-        <v>-0.02145489535739263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01500900445727381</v>
+      </c>
+      <c r="E54">
+        <v>-0.04560821816598254</v>
+      </c>
+      <c r="F54">
+        <v>-0.007212464808136311</v>
+      </c>
+      <c r="G54">
+        <v>-0.01409276236551634</v>
+      </c>
+      <c r="H54">
+        <v>-0.05215153445691365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09889534792564841</v>
+        <v>-0.1038953364847833</v>
       </c>
       <c r="C55">
-        <v>-0.05059100997876587</v>
+        <v>-0.03468732059667994</v>
       </c>
       <c r="D55">
-        <v>-0.01966283739260592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02177218528910266</v>
+      </c>
+      <c r="E55">
+        <v>-0.01109050237372813</v>
+      </c>
+      <c r="F55">
+        <v>-0.0163728745500637</v>
+      </c>
+      <c r="G55">
+        <v>0.01610484519072854</v>
+      </c>
+      <c r="H55">
+        <v>-0.1533269120494586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.149417733031666</v>
+        <v>-0.1618678992807198</v>
       </c>
       <c r="C56">
-        <v>-0.08792264559689165</v>
+        <v>-0.06433130344058793</v>
       </c>
       <c r="D56">
-        <v>-0.01450527877015554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02008497319621677</v>
+      </c>
+      <c r="E56">
+        <v>0.02238800913601112</v>
+      </c>
+      <c r="F56">
+        <v>-0.03191921975988875</v>
+      </c>
+      <c r="G56">
+        <v>0.03908113426831238</v>
+      </c>
+      <c r="H56">
+        <v>-0.172631626876833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1299190362027796</v>
+        <v>-0.1009792628381867</v>
       </c>
       <c r="C58">
-        <v>-0.001094708320784463</v>
+        <v>0.03992123619379392</v>
       </c>
       <c r="D58">
-        <v>-0.03133984227786146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03573435754624741</v>
+      </c>
+      <c r="E58">
+        <v>-0.1410587260016495</v>
+      </c>
+      <c r="F58">
+        <v>0.007177946181224382</v>
+      </c>
+      <c r="G58">
+        <v>0.01566908758299055</v>
+      </c>
+      <c r="H58">
+        <v>0.2244801339558411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1215048971555034</v>
+        <v>-0.1356376737195072</v>
       </c>
       <c r="C59">
-        <v>-0.07165809879482232</v>
+        <v>-0.08431063965800698</v>
       </c>
       <c r="D59">
-        <v>0.3667570834383616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3660967189558168</v>
+      </c>
+      <c r="E59">
+        <v>-0.02679816616603176</v>
+      </c>
+      <c r="F59">
+        <v>-0.01431276115219947</v>
+      </c>
+      <c r="G59">
+        <v>0.01938075135280794</v>
+      </c>
+      <c r="H59">
+        <v>0.0006261989515482825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2049111654268658</v>
+        <v>-0.2337314650764256</v>
       </c>
       <c r="C60">
-        <v>-0.09269037262057457</v>
+        <v>-0.06423441164568511</v>
       </c>
       <c r="D60">
-        <v>-0.01825601548135205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04099760892518123</v>
+      </c>
+      <c r="E60">
+        <v>0.09684415017035265</v>
+      </c>
+      <c r="F60">
+        <v>-0.05753785086408857</v>
+      </c>
+      <c r="G60">
+        <v>-0.02420023133882477</v>
+      </c>
+      <c r="H60">
+        <v>0.1460031036234854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08213662639351123</v>
+        <v>-0.08912994837821668</v>
       </c>
       <c r="C61">
-        <v>-0.05181298738888087</v>
+        <v>-0.0381415576081036</v>
       </c>
       <c r="D61">
-        <v>-0.04362028553692054</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0401886367192706</v>
+      </c>
+      <c r="E61">
+        <v>-0.0009854657801922555</v>
+      </c>
+      <c r="F61">
+        <v>-0.001196398834724693</v>
+      </c>
+      <c r="G61">
+        <v>0.0005692196504585145</v>
+      </c>
+      <c r="H61">
+        <v>-0.06216145365895348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1294426689681892</v>
+        <v>-0.1385845866650214</v>
       </c>
       <c r="C62">
-        <v>-0.06160198992311496</v>
+        <v>-0.03966928780805748</v>
       </c>
       <c r="D62">
-        <v>-0.02016310450392312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03229192833863804</v>
+      </c>
+      <c r="E62">
+        <v>0.05895857083102713</v>
+      </c>
+      <c r="F62">
+        <v>-0.01206030300022507</v>
+      </c>
+      <c r="G62">
+        <v>-0.0007173488588043298</v>
+      </c>
+      <c r="H62">
+        <v>-0.180507428980437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05142366014918237</v>
+        <v>-0.05133177742230436</v>
       </c>
       <c r="C63">
-        <v>-0.02420035214595421</v>
+        <v>-0.01397371657549267</v>
       </c>
       <c r="D63">
-        <v>-0.02162670653105104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01946188863820944</v>
+      </c>
+      <c r="E63">
+        <v>-0.04826816511737533</v>
+      </c>
+      <c r="F63">
+        <v>0.006853060508955763</v>
+      </c>
+      <c r="G63">
+        <v>-0.01985252671352976</v>
+      </c>
+      <c r="H63">
+        <v>-0.05331584083587174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1044521984783923</v>
+        <v>-0.1087584366485399</v>
       </c>
       <c r="C64">
-        <v>-0.03190836254514055</v>
+        <v>-0.0161909065037454</v>
       </c>
       <c r="D64">
-        <v>-0.04336853471367687</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03049665676525852</v>
+      </c>
+      <c r="E64">
+        <v>-0.03198857543670081</v>
+      </c>
+      <c r="F64">
+        <v>-0.03984017334766983</v>
+      </c>
+      <c r="G64">
+        <v>-0.04633241432653398</v>
+      </c>
+      <c r="H64">
+        <v>-0.0459993828322655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1264430273326777</v>
+        <v>-0.1263348358940646</v>
       </c>
       <c r="C65">
-        <v>-0.05891472808536776</v>
+        <v>-0.0379430099975006</v>
       </c>
       <c r="D65">
-        <v>0.01594454836017377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.006861142140436351</v>
+      </c>
+      <c r="E65">
+        <v>-0.004513824766525283</v>
+      </c>
+      <c r="F65">
+        <v>-0.05400651068952781</v>
+      </c>
+      <c r="G65">
+        <v>-0.06318911734517607</v>
+      </c>
+      <c r="H65">
+        <v>0.1503224975593342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1470440372823901</v>
+        <v>-0.1545581044842105</v>
       </c>
       <c r="C66">
-        <v>-0.07290877168508705</v>
+        <v>-0.04547413730785601</v>
       </c>
       <c r="D66">
-        <v>-0.1115077552156673</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09527431633326924</v>
+      </c>
+      <c r="E66">
+        <v>0.02295462569404214</v>
+      </c>
+      <c r="F66">
+        <v>-0.01017562833329044</v>
+      </c>
+      <c r="G66">
+        <v>-0.03988434288861537</v>
+      </c>
+      <c r="H66">
+        <v>-0.114160393213823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07377421747676149</v>
+        <v>-0.08433116493600623</v>
       </c>
       <c r="C67">
-        <v>-0.01341232539685591</v>
+        <v>-0.005361213661892411</v>
       </c>
       <c r="D67">
-        <v>-0.02180608302129647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03009295327047818</v>
+      </c>
+      <c r="E67">
+        <v>-0.02026937639108511</v>
+      </c>
+      <c r="F67">
+        <v>-0.02053366449778301</v>
+      </c>
+      <c r="G67">
+        <v>0.01048852366665515</v>
+      </c>
+      <c r="H67">
+        <v>-0.04053794199280267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05834570127947714</v>
+        <v>-0.05670323790134429</v>
       </c>
       <c r="C68">
-        <v>-0.04362361962365729</v>
+        <v>-0.05540816805224724</v>
       </c>
       <c r="D68">
-        <v>0.2549450640872204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2708058215154</v>
+      </c>
+      <c r="E68">
+        <v>-0.03813532423587138</v>
+      </c>
+      <c r="F68">
+        <v>-0.0143950077641108</v>
+      </c>
+      <c r="G68">
+        <v>0.0143432916018334</v>
+      </c>
+      <c r="H68">
+        <v>-0.007230308101559065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05188789340887592</v>
+        <v>-0.05295762721154711</v>
       </c>
       <c r="C69">
-        <v>-0.01680161880336896</v>
+        <v>-0.006246944928211777</v>
       </c>
       <c r="D69">
-        <v>-0.0201492945167167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01593438551944019</v>
+      </c>
+      <c r="E69">
+        <v>-0.02592006192951491</v>
+      </c>
+      <c r="F69">
+        <v>0.00797664298192243</v>
+      </c>
+      <c r="G69">
+        <v>0.02342726921033244</v>
+      </c>
+      <c r="H69">
+        <v>-0.04939220800777733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004041271364964297</v>
+        <v>-0.02702896977836272</v>
       </c>
       <c r="C70">
-        <v>0.005022803453436103</v>
+        <v>-0.0001023881355080836</v>
       </c>
       <c r="D70">
-        <v>-0.003809592521650238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005378176565759256</v>
+      </c>
+      <c r="E70">
+        <v>0.02293887126081495</v>
+      </c>
+      <c r="F70">
+        <v>-0.0139225803271435</v>
+      </c>
+      <c r="G70">
+        <v>0.02789231410313064</v>
+      </c>
+      <c r="H70">
+        <v>0.0248900503257482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05795526189081242</v>
+        <v>-0.05862631115613322</v>
       </c>
       <c r="C71">
-        <v>-0.04357098545250897</v>
+        <v>-0.05943885969545876</v>
       </c>
       <c r="D71">
-        <v>0.293987628549395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2961572771031738</v>
+      </c>
+      <c r="E71">
+        <v>-0.0343179743696481</v>
+      </c>
+      <c r="F71">
+        <v>-0.04301552941275536</v>
+      </c>
+      <c r="G71">
+        <v>0.002974243853981748</v>
+      </c>
+      <c r="H71">
+        <v>-0.008687723934738521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1413216360388061</v>
+        <v>-0.1439018215423634</v>
       </c>
       <c r="C72">
-        <v>-0.06128116719069287</v>
+        <v>-0.03422698683747005</v>
       </c>
       <c r="D72">
-        <v>0.0001007329411525236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003969467073531893</v>
+      </c>
+      <c r="E72">
+        <v>0.08621311959320023</v>
+      </c>
+      <c r="F72">
+        <v>0.1643802056821863</v>
+      </c>
+      <c r="G72">
+        <v>-0.1212824858487457</v>
+      </c>
+      <c r="H72">
+        <v>-0.01513088430544192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2826779667252928</v>
+        <v>-0.2891100392597363</v>
       </c>
       <c r="C73">
-        <v>-0.1071939208875388</v>
+        <v>-0.04655912079986461</v>
       </c>
       <c r="D73">
-        <v>-0.04324335015460737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09279791473736083</v>
+      </c>
+      <c r="E73">
+        <v>0.2144454968290135</v>
+      </c>
+      <c r="F73">
+        <v>-0.09730013533907202</v>
+      </c>
+      <c r="G73">
+        <v>0.1347471345900573</v>
+      </c>
+      <c r="H73">
+        <v>0.5063432180601495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07951827280316516</v>
+        <v>-0.09141364630533215</v>
       </c>
       <c r="C74">
-        <v>-0.07708242305930102</v>
+        <v>-0.06294729010400976</v>
       </c>
       <c r="D74">
-        <v>-0.01029061717098221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0287832877006298</v>
+      </c>
+      <c r="E74">
+        <v>0.003721818571832248</v>
+      </c>
+      <c r="F74">
+        <v>-0.001893143899161985</v>
+      </c>
+      <c r="G74">
+        <v>0.05474653802248464</v>
+      </c>
+      <c r="H74">
+        <v>-0.1116575594543113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09579714857756985</v>
+        <v>-0.1012885523374872</v>
       </c>
       <c r="C75">
-        <v>-0.04956072686178547</v>
+        <v>-0.02791013186572933</v>
       </c>
       <c r="D75">
-        <v>-0.00459439942278417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01362733335407177</v>
+      </c>
+      <c r="E75">
+        <v>-0.003339772147786418</v>
+      </c>
+      <c r="F75">
+        <v>-0.02344019626586835</v>
+      </c>
+      <c r="G75">
+        <v>0.02491137463792577</v>
+      </c>
+      <c r="H75">
+        <v>-0.1130481494550533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1302772285062881</v>
+        <v>-0.1410552011141995</v>
       </c>
       <c r="C76">
-        <v>-0.08287359683062637</v>
+        <v>-0.06096127663247426</v>
       </c>
       <c r="D76">
-        <v>-0.04246623659840792</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04631572457708805</v>
+      </c>
+      <c r="E76">
+        <v>-0.01764243483698051</v>
+      </c>
+      <c r="F76">
+        <v>-0.04702385454366519</v>
+      </c>
+      <c r="G76">
+        <v>0.01653626374104741</v>
+      </c>
+      <c r="H76">
+        <v>-0.1952506855225508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1169527357180535</v>
+        <v>-0.1081785723907766</v>
       </c>
       <c r="C77">
-        <v>-0.007567423506114271</v>
+        <v>0.01919506589845021</v>
       </c>
       <c r="D77">
-        <v>-0.06212326639515174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02239422121366772</v>
+      </c>
+      <c r="E77">
+        <v>-0.02456090620705669</v>
+      </c>
+      <c r="F77">
+        <v>-0.1051007902786732</v>
+      </c>
+      <c r="G77">
+        <v>-0.8910376952816804</v>
+      </c>
+      <c r="H77">
+        <v>0.08258708985427482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1049671760530058</v>
+        <v>-0.1442809490155036</v>
       </c>
       <c r="C78">
-        <v>-0.03899687655809732</v>
+        <v>-0.03568389588950467</v>
       </c>
       <c r="D78">
-        <v>-0.08335675389143983</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07837221628731134</v>
+      </c>
+      <c r="E78">
+        <v>-0.05611648850538916</v>
+      </c>
+      <c r="F78">
+        <v>-0.04891706068696938</v>
+      </c>
+      <c r="G78">
+        <v>-0.08578318859687148</v>
+      </c>
+      <c r="H78">
+        <v>0.03120407230186104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1467570755654488</v>
+        <v>-0.1514328984143901</v>
       </c>
       <c r="C79">
-        <v>-0.06938022435238723</v>
+        <v>-0.04200493537716884</v>
       </c>
       <c r="D79">
-        <v>-0.02718222800849932</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02642527077714395</v>
+      </c>
+      <c r="E79">
+        <v>0.0186715923460685</v>
+      </c>
+      <c r="F79">
+        <v>-0.0226812800189647</v>
+      </c>
+      <c r="G79">
+        <v>0.04344101739592832</v>
+      </c>
+      <c r="H79">
+        <v>-0.169190967128356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04215970632570412</v>
+        <v>-0.04320998322301677</v>
       </c>
       <c r="C80">
-        <v>-0.01991616021611754</v>
+        <v>-0.01461634373963913</v>
       </c>
       <c r="D80">
-        <v>-0.02782399817687447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01141188915282825</v>
+      </c>
+      <c r="E80">
+        <v>0.02916170796760428</v>
+      </c>
+      <c r="F80">
+        <v>-0.00907278308325592</v>
+      </c>
+      <c r="G80">
+        <v>0.02255298797692706</v>
+      </c>
+      <c r="H80">
+        <v>-0.03706142655232917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1176260531712387</v>
+        <v>-0.1200638733746123</v>
       </c>
       <c r="C81">
-        <v>-0.06208430247471488</v>
+        <v>-0.03921978503715731</v>
       </c>
       <c r="D81">
-        <v>-0.02924932925733493</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02227420721539046</v>
+      </c>
+      <c r="E81">
+        <v>-0.008993777342349992</v>
+      </c>
+      <c r="F81">
+        <v>-0.01953024220071934</v>
+      </c>
+      <c r="G81">
+        <v>0.05871622283810941</v>
+      </c>
+      <c r="H81">
+        <v>-0.1516903597280369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1298054109458581</v>
+        <v>-0.131718624358857</v>
       </c>
       <c r="C82">
-        <v>-0.07349535077294064</v>
+        <v>-0.05062903154272453</v>
       </c>
       <c r="D82">
-        <v>-0.01531743136190983</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02377684783583192</v>
+      </c>
+      <c r="E82">
+        <v>0.0161231190470983</v>
+      </c>
+      <c r="F82">
+        <v>-0.05686104913187627</v>
+      </c>
+      <c r="G82">
+        <v>0.05528256842351788</v>
+      </c>
+      <c r="H82">
+        <v>-0.2141113579376515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07471405167058391</v>
+        <v>-0.08584361943511212</v>
       </c>
       <c r="C83">
-        <v>0.01300071593082706</v>
+        <v>0.02541980571625712</v>
       </c>
       <c r="D83">
-        <v>-0.03046789129326876</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03338292121233056</v>
+      </c>
+      <c r="E83">
+        <v>-0.0186011896894847</v>
+      </c>
+      <c r="F83">
+        <v>-0.05790180364302092</v>
+      </c>
+      <c r="G83">
+        <v>0.07818092898123857</v>
+      </c>
+      <c r="H83">
+        <v>0.04919231793332866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02916393688197209</v>
+        <v>-0.03708572084118351</v>
       </c>
       <c r="C84">
-        <v>-0.02862627252173828</v>
+        <v>-0.0235245572999208</v>
       </c>
       <c r="D84">
-        <v>-0.02726210331146352</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03090360118963931</v>
+      </c>
+      <c r="E84">
+        <v>-0.02758228581488565</v>
+      </c>
+      <c r="F84">
+        <v>0.05108988654879031</v>
+      </c>
+      <c r="G84">
+        <v>0.06372954955058448</v>
+      </c>
+      <c r="H84">
+        <v>-0.003634781622199226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1205378219949957</v>
+        <v>-0.1224119558120307</v>
       </c>
       <c r="C85">
-        <v>-0.04803268328127201</v>
+        <v>-0.02550453382329051</v>
       </c>
       <c r="D85">
-        <v>-0.01491534753981832</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01936894222329278</v>
+      </c>
+      <c r="E85">
+        <v>-0.01414860138356962</v>
+      </c>
+      <c r="F85">
+        <v>-0.03833339594166481</v>
+      </c>
+      <c r="G85">
+        <v>0.03493152457544017</v>
+      </c>
+      <c r="H85">
+        <v>-0.1552777266679712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05347023391562848</v>
+        <v>-0.05869853480093246</v>
       </c>
       <c r="C86">
-        <v>-0.02042745626457166</v>
+        <v>-0.01127839505030838</v>
       </c>
       <c r="D86">
-        <v>-0.03178015526873562</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02768116208727008</v>
+      </c>
+      <c r="E86">
+        <v>-0.05798802049853784</v>
+      </c>
+      <c r="F86">
+        <v>-0.02875777663637</v>
+      </c>
+      <c r="G86">
+        <v>0.02299791017323096</v>
+      </c>
+      <c r="H86">
+        <v>0.01192061867375084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1169977964184335</v>
+        <v>-0.1215820061343394</v>
       </c>
       <c r="C87">
-        <v>-0.07314850060913197</v>
+        <v>-0.04295063029556234</v>
       </c>
       <c r="D87">
-        <v>-0.07763470785248044</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07044611785767657</v>
+      </c>
+      <c r="E87">
+        <v>-0.01888891199164562</v>
+      </c>
+      <c r="F87">
+        <v>-0.007234685363507865</v>
+      </c>
+      <c r="G87">
+        <v>-0.136552764622057</v>
+      </c>
+      <c r="H87">
+        <v>0.03406572876227394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0526420966561927</v>
+        <v>-0.0607582006312017</v>
       </c>
       <c r="C88">
-        <v>-0.0293088646277237</v>
+        <v>-0.02176669304139608</v>
       </c>
       <c r="D88">
-        <v>-0.02199499711560989</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03170693599736806</v>
+      </c>
+      <c r="E88">
+        <v>-0.01839255177518568</v>
+      </c>
+      <c r="F88">
+        <v>-0.01122266701696792</v>
+      </c>
+      <c r="G88">
+        <v>-0.005561518750358755</v>
+      </c>
+      <c r="H88">
+        <v>-0.05490867783344629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08750521318537008</v>
+        <v>-0.09434744560285629</v>
       </c>
       <c r="C89">
-        <v>-0.06717387593717709</v>
+        <v>-0.0828208777408944</v>
       </c>
       <c r="D89">
-        <v>0.3262849640166943</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3499558206932197</v>
+      </c>
+      <c r="E89">
+        <v>-0.07038397055377997</v>
+      </c>
+      <c r="F89">
+        <v>-0.07685629733484282</v>
+      </c>
+      <c r="G89">
+        <v>0.02269955885077194</v>
+      </c>
+      <c r="H89">
+        <v>-0.003625841073172867</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07471497126494055</v>
+        <v>-0.07740649735791907</v>
       </c>
       <c r="C90">
-        <v>-0.05045530819701682</v>
+        <v>-0.06317750297532301</v>
       </c>
       <c r="D90">
-        <v>0.3125475513554454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3060452569951014</v>
+      </c>
+      <c r="E90">
+        <v>-0.06764582899462131</v>
+      </c>
+      <c r="F90">
+        <v>-0.001831343064839602</v>
+      </c>
+      <c r="G90">
+        <v>0.00569834861897845</v>
+      </c>
+      <c r="H90">
+        <v>-0.002258788579908767</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08840779785121751</v>
+        <v>-0.09062363393362309</v>
       </c>
       <c r="C91">
-        <v>-0.05247705692241869</v>
+        <v>-0.03229178856654625</v>
       </c>
       <c r="D91">
-        <v>-0.02343581531125596</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03050189473311794</v>
+      </c>
+      <c r="E91">
+        <v>-0.007235479688997085</v>
+      </c>
+      <c r="F91">
+        <v>-0.004154019491168907</v>
+      </c>
+      <c r="G91">
+        <v>0.0509635500284261</v>
+      </c>
+      <c r="H91">
+        <v>-0.08488006715676517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07475172450210778</v>
+        <v>-0.07739956130185091</v>
       </c>
       <c r="C92">
-        <v>-0.06731196879900203</v>
+        <v>-0.08214146041102317</v>
       </c>
       <c r="D92">
-        <v>0.3427317386013771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3470580730754207</v>
+      </c>
+      <c r="E92">
+        <v>-0.04140649714202076</v>
+      </c>
+      <c r="F92">
+        <v>-0.04936773159804966</v>
+      </c>
+      <c r="G92">
+        <v>-0.01897913449943599</v>
+      </c>
+      <c r="H92">
+        <v>-0.01542654980654171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0650875310007021</v>
+        <v>-0.07418994397193066</v>
       </c>
       <c r="C93">
-        <v>-0.05953090075240811</v>
+        <v>-0.07860621945661377</v>
       </c>
       <c r="D93">
-        <v>0.3105814927924977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3086104443337642</v>
+      </c>
+      <c r="E93">
+        <v>-0.02451371071181693</v>
+      </c>
+      <c r="F93">
+        <v>-0.03843386962063056</v>
+      </c>
+      <c r="G93">
+        <v>-0.01765069711880762</v>
+      </c>
+      <c r="H93">
+        <v>0.0115501692543679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1350113774404171</v>
+        <v>-0.1289851858529888</v>
       </c>
       <c r="C94">
-        <v>-0.04647385739916822</v>
+        <v>-0.01612141684363345</v>
       </c>
       <c r="D94">
-        <v>-0.03488669952233229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04454991727338818</v>
+      </c>
+      <c r="E94">
+        <v>0.01654973572476979</v>
+      </c>
+      <c r="F94">
+        <v>-0.0158188061120453</v>
+      </c>
+      <c r="G94">
+        <v>0.06189297358631882</v>
+      </c>
+      <c r="H94">
+        <v>-0.1010767062358164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1217252631218585</v>
+        <v>-0.1273234877478123</v>
       </c>
       <c r="C95">
-        <v>-0.03155059672378272</v>
+        <v>-0.004655137615332569</v>
       </c>
       <c r="D95">
-        <v>-0.06690189670470552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07159094616074382</v>
+      </c>
+      <c r="E95">
+        <v>-0.01285508428767243</v>
+      </c>
+      <c r="F95">
+        <v>-0.03493124012459715</v>
+      </c>
+      <c r="G95">
+        <v>-0.01051434245390705</v>
+      </c>
+      <c r="H95">
+        <v>0.03297337240921708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2181855623205315</v>
+        <v>-0.2050755159373247</v>
       </c>
       <c r="C97">
-        <v>-0.04691867363168934</v>
+        <v>-0.0005128506737975122</v>
       </c>
       <c r="D97">
-        <v>0.103690467623769</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08419904081332587</v>
+      </c>
+      <c r="E97">
+        <v>0.2264058733896122</v>
+      </c>
+      <c r="F97">
+        <v>0.8993452747528655</v>
+      </c>
+      <c r="G97">
+        <v>-0.06915408908015364</v>
+      </c>
+      <c r="H97">
+        <v>-0.01998499139843661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2509305459577305</v>
+        <v>-0.276730509514553</v>
       </c>
       <c r="C98">
-        <v>-0.06668267870745229</v>
+        <v>-0.02772573547147405</v>
       </c>
       <c r="D98">
-        <v>-0.03436599801792115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05342006745086662</v>
+      </c>
+      <c r="E98">
+        <v>0.1799493943492201</v>
+      </c>
+      <c r="F98">
+        <v>-0.07273932705637724</v>
+      </c>
+      <c r="G98">
+        <v>0.2375818404412654</v>
+      </c>
+      <c r="H98">
+        <v>0.2480462862231282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4205373087933271</v>
+        <v>-0.2781323770955459</v>
       </c>
       <c r="C99">
-        <v>0.8912711455794774</v>
+        <v>0.9356408789204252</v>
       </c>
       <c r="D99">
-        <v>0.03937486373469509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1265714250307099</v>
+      </c>
+      <c r="E99">
+        <v>-0.06702424014272378</v>
+      </c>
+      <c r="F99">
+        <v>-0.05170315821257677</v>
+      </c>
+      <c r="G99">
+        <v>0.02726208201402449</v>
+      </c>
+      <c r="H99">
+        <v>-0.06831561105161772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04198281272864935</v>
+        <v>-0.04845844348343646</v>
       </c>
       <c r="C101">
-        <v>-0.02905385397545094</v>
+        <v>-0.02503633534287097</v>
       </c>
       <c r="D101">
-        <v>-0.009323822429502093</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007272121393837354</v>
+      </c>
+      <c r="E101">
+        <v>-0.06134258611186438</v>
+      </c>
+      <c r="F101">
+        <v>-0.01054450860712185</v>
+      </c>
+      <c r="G101">
+        <v>0.008579299526577691</v>
+      </c>
+      <c r="H101">
+        <v>-0.07513503205358359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
